--- a/contenedores.xlsx
+++ b/contenedores.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaute\OneDrive\Desktop\appg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Documents\Ship Form\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CF0CCF-2191-4C40-9D8B-B06B9FBE556C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,25 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$S$84</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="124">
   <si>
     <t xml:space="preserve">a) </t>
   </si>
@@ -380,19 +394,10 @@
     <t>XIN HAI TONG 26</t>
   </si>
   <si>
-    <t>GUATEMALA MARITIMA, S.A.</t>
-  </si>
-  <si>
     <t>CUALQUIER MUELLE COMERCIAL</t>
   </si>
   <si>
     <t>72 HORAS</t>
-  </si>
-  <si>
-    <t>COOPERATIVA</t>
-  </si>
-  <si>
-    <t>JOSEFINA</t>
   </si>
   <si>
     <t>ARRIBO</t>
@@ -410,11 +415,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1220,9 +1225,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1237,14 +1241,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1254,7 +1257,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1264,11 +1267,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1279,126 +1282,124 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1411,7 +1412,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1420,10 +1421,10 @@
     <xf numFmtId="0" fontId="32" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1450,8 +1451,8 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1460,13 +1461,249 @@
     <xf numFmtId="2" fontId="1" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="36" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="36" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="23" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="23" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="38" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="29" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1476,257 +1713,17 @@
     <xf numFmtId="0" fontId="34" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="23" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="38" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="29" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="23" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="36" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="36" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2290,13 +2287,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:colOff>220980</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2308,7 +2305,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD640210-046A-46C6-8E35-743DA7406517}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2347,14 +2344,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="es-GT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2377,13 +2374,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>30480</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2395,7 +2392,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29FB998-EAEB-4325-93C9-87042CA1F191}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2434,14 +2431,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="es-GT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2464,15 +2461,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2482,7 +2479,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62398F48-E90B-44BA-BE83-316C6D231161}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2521,14 +2518,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="es-GT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2551,13 +2548,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>388620</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>99060</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
+          <xdr:colOff>297180</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -2569,7 +2566,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81610FF4-DAB4-4E64-A3A9-63FA94B6ED2A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2608,14 +2605,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="es-GT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2640,13 +2637,13 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>83820</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>238125</xdr:colOff>
+          <xdr:colOff>236220</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2656,7 +2653,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA368EEF-945F-404C-96F5-8CC62C1C4C25}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2695,14 +2692,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="es-GT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2985,2389 +2982,2107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T296"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S296"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="V72" sqref="V72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="2.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="5.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="5.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="2" customWidth="1"/>
-    <col min="11" max="13" width="5.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="5.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="5.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="1.5703125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="3" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="7.5703125" style="2"/>
+    <col min="1" max="1" width="1.109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11" max="13" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="1.5546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="3" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="7.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4" t="s">
+    <row r="1" spans="2:19" ht="12.75" customHeight="1">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="5"/>
-    </row>
-    <row r="2" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="J2" s="7" t="s">
+      <c r="R1" s="3"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="2:19" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B2" s="5"/>
+      <c r="J2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="45" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="9"/>
-    </row>
-    <row r="3" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="46" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="2:19" ht="15" customHeight="1">
+      <c r="B3" s="5"/>
+      <c r="F3" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="153" t="s">
+      <c r="J3" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="154"/>
-      <c r="Q3" s="154"/>
-      <c r="R3" s="154"/>
-      <c r="S3" s="155"/>
-    </row>
-    <row r="4" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="6"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="121">
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="162"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="163"/>
+    </row>
+    <row r="4" spans="2:19" ht="15" customHeight="1">
+      <c r="B4" s="5"/>
+      <c r="F4" s="117">
         <v>5</v>
       </c>
-      <c r="G4" s="121">
+      <c r="G4" s="117">
         <v>1</v>
       </c>
-      <c r="H4" s="121">
+      <c r="H4" s="117">
         <v>2022</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="156" t="s">
+      <c r="J4" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="157"/>
-      <c r="R4" s="157"/>
-      <c r="S4" s="158"/>
-    </row>
-    <row r="5" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="102" t="s">
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="165"/>
+      <c r="R4" s="165"/>
+      <c r="S4" s="166"/>
+    </row>
+    <row r="5" spans="2:19" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="102"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104">
+      <c r="G5" s="98"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="100">
         <v>0.39583333333333331</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="9"/>
-    </row>
-    <row r="6" spans="2:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:19" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="77" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="8"/>
+    </row>
+    <row r="6" spans="2:19" ht="6" customHeight="1" thickBot="1"/>
+    <row r="7" spans="2:19" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="B7" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="79" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="36"/>
-    </row>
-    <row r="8" spans="2:19" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="81"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="190" t="s">
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="34"/>
+    </row>
+    <row r="8" spans="2:19" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="181">
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="141">
         <v>0.39583333333333331</v>
       </c>
-      <c r="I8" s="189"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="190" t="s">
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="190"/>
-      <c r="M8" s="190"/>
-      <c r="N8" s="190"/>
-      <c r="O8" s="197">
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="125">
         <v>0.89583333333333337</v>
       </c>
-      <c r="P8" s="198"/>
-      <c r="Q8" s="198"/>
-      <c r="R8" s="198"/>
-      <c r="S8" s="37"/>
-    </row>
-    <row r="9" spans="2:19" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="81"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83" t="s">
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="35"/>
+    </row>
+    <row r="9" spans="2:19" s="13" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="191" t="s">
+      <c r="E9" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="191"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="190" t="s">
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="190"/>
-      <c r="M9" s="194">
+      <c r="L9" s="127"/>
+      <c r="M9" s="138">
         <v>189.99</v>
       </c>
-      <c r="N9" s="194"/>
-      <c r="O9" s="194"/>
-      <c r="P9" s="84" t="s">
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="193">
+      <c r="Q9" s="137">
         <v>33044</v>
       </c>
-      <c r="R9" s="193"/>
-      <c r="S9" s="37"/>
-    </row>
-    <row r="10" spans="2:19" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="84" t="s">
+      <c r="R9" s="137"/>
+      <c r="S9" s="35"/>
+    </row>
+    <row r="10" spans="2:19" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="192" t="s">
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="127" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" s="127"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="35"/>
+    </row>
+    <row r="11" spans="2:19" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="182">
+        <v>44567.895833333336</v>
+      </c>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="133" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="133"/>
+      <c r="K11" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="180" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" s="181"/>
+      <c r="P11" s="181"/>
+      <c r="Q11" s="181"/>
+      <c r="R11" s="181"/>
+      <c r="S11" s="35"/>
+    </row>
+    <row r="12" spans="2:19" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="141" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="121" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="179" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" s="179"/>
+      <c r="P12" s="179"/>
+      <c r="Q12" s="179"/>
+      <c r="R12" s="179"/>
+      <c r="S12" s="35"/>
+    </row>
+    <row r="13" spans="2:19" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="118">
+        <v>10.8</v>
+      </c>
+      <c r="F13" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="192"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="192"/>
-      <c r="K10" s="190" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="190"/>
-      <c r="M10" s="124" t="s">
-        <v>121</v>
-      </c>
-      <c r="N10" s="124"/>
-      <c r="O10" s="123" t="s">
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="179" t="s">
         <v>122</v>
       </c>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="190"/>
-      <c r="R10" s="190"/>
-      <c r="S10" s="37"/>
-    </row>
-    <row r="11" spans="2:19" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="81"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="187">
-        <v>44567.895833333336</v>
-      </c>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="204" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="204"/>
-      <c r="K11" s="212" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="212"/>
-      <c r="M11" s="212"/>
-      <c r="N11" s="185" t="s">
-        <v>123</v>
-      </c>
-      <c r="O11" s="186"/>
-      <c r="P11" s="186"/>
-      <c r="Q11" s="186"/>
-      <c r="R11" s="186"/>
-      <c r="S11" s="37"/>
-    </row>
-    <row r="12" spans="2:19" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="81"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="181" t="s">
-        <v>120</v>
-      </c>
-      <c r="I12" s="182"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="184" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
-      <c r="N12" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="O12" s="174"/>
-      <c r="P12" s="174"/>
-      <c r="Q12" s="174"/>
-      <c r="R12" s="174"/>
-      <c r="S12" s="37"/>
-    </row>
-    <row r="13" spans="2:19" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="81"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="122">
-        <v>10.8</v>
-      </c>
-      <c r="F13" s="183" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="183"/>
-      <c r="K13" s="184" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="184"/>
-      <c r="M13" s="184"/>
-      <c r="N13" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="O13" s="174"/>
-      <c r="P13" s="174"/>
-      <c r="Q13" s="174"/>
-      <c r="R13" s="174"/>
-      <c r="S13" s="37"/>
-    </row>
-    <row r="14" spans="2:19" s="14" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="39"/>
-    </row>
-    <row r="15" spans="2:19" s="14" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="10" t="s">
+      <c r="O13" s="179"/>
+      <c r="P13" s="179"/>
+      <c r="Q13" s="179"/>
+      <c r="R13" s="179"/>
+      <c r="S13" s="35"/>
+    </row>
+    <row r="14" spans="2:19" s="13" customFormat="1" ht="4.5" customHeight="1" thickBot="1">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="37"/>
+    </row>
+    <row r="15" spans="2:19" s="13" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
+    <row r="16" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="13"/>
-    </row>
-    <row r="17" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="21"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="2"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B17" s="19"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="165" t="s">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="165"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="166"/>
-      <c r="O17" s="167" t="s">
+      <c r="L17" s="173"/>
+      <c r="M17" s="173"/>
+      <c r="N17" s="174"/>
+      <c r="O17" s="175" t="s">
         <v>35</v>
       </c>
-      <c r="P17" s="167"/>
-      <c r="Q17" s="167"/>
-      <c r="R17" s="168"/>
-      <c r="S17" s="17"/>
-    </row>
-    <row r="18" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="175" t="s">
+      <c r="P17" s="175"/>
+      <c r="Q17" s="175"/>
+      <c r="R17" s="176"/>
+      <c r="S17" s="15"/>
+    </row>
+    <row r="18" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B18" s="14"/>
+      <c r="D18" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="179" t="s">
+      <c r="E18" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="179" t="s">
+      <c r="F18" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="177" t="s">
+      <c r="I18" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="28" t="s">
+      <c r="J18" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="161" t="s">
+      <c r="K18" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="163" t="s">
+      <c r="L18" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="159" t="s">
+      <c r="M18" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="N18" s="160"/>
-      <c r="O18" s="169" t="s">
+      <c r="N18" s="168"/>
+      <c r="O18" s="177" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="200" t="s">
+      <c r="P18" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="202" t="s">
+      <c r="Q18" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="R18" s="203"/>
-      <c r="S18" s="17"/>
-    </row>
-    <row r="19" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="32" t="s">
+      <c r="R18" s="132"/>
+      <c r="S18" s="15"/>
+    </row>
+    <row r="19" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B19" s="14"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="34" t="s">
+      <c r="H19" s="30"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="162"/>
-      <c r="L19" s="164"/>
-      <c r="M19" s="30" t="s">
+      <c r="K19" s="170"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="33" t="s">
+      <c r="N19" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="170"/>
-      <c r="P19" s="201"/>
-      <c r="Q19" s="31" t="s">
+      <c r="O19" s="178"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="R19" s="31" t="s">
+      <c r="R19" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="S19" s="17"/>
-    </row>
-    <row r="20" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="63" t="s">
+      <c r="S19" s="15"/>
+    </row>
+    <row r="20" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1" thickTop="1">
+      <c r="B20" s="14"/>
+      <c r="D20" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="61">
         <f>+K27</f>
         <v>0</v>
       </c>
-      <c r="F20" s="64">
+      <c r="F20" s="61">
         <v>370</v>
       </c>
-      <c r="G20" s="64">
+      <c r="G20" s="61">
         <f>+M27+N27</f>
         <v>0</v>
       </c>
-      <c r="H20" s="64">
+      <c r="H20" s="61">
         <v>0</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="62">
         <v>370</v>
       </c>
-      <c r="J20" s="111"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="114">
+      <c r="J20" s="107"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="110">
         <v>0</v>
       </c>
-      <c r="P20" s="112">
+      <c r="P20" s="108">
         <v>0</v>
       </c>
-      <c r="Q20" s="112"/>
-      <c r="R20" s="112"/>
-      <c r="S20" s="17"/>
-    </row>
-    <row r="21" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="66" t="s">
+      <c r="Q20" s="108"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="15"/>
+    </row>
+    <row r="21" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B21" s="14"/>
+      <c r="D21" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="64">
         <v>0</v>
       </c>
-      <c r="F21" s="67">
+      <c r="F21" s="64">
         <v>0</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="64">
         <f>+Q27+R27</f>
         <v>0</v>
       </c>
-      <c r="H21" s="67">
+      <c r="H21" s="64">
         <v>0</v>
       </c>
-      <c r="I21" s="65">
+      <c r="I21" s="62">
         <f>SUM(E21:H21)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="115"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="118">
+      <c r="J21" s="111"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="114">
         <v>0</v>
       </c>
-      <c r="P21" s="116">
+      <c r="P21" s="112">
         <v>0</v>
       </c>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="17"/>
-    </row>
-    <row r="22" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="68" t="s">
+      <c r="Q21" s="112"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="15"/>
+    </row>
+    <row r="22" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B22" s="14"/>
+      <c r="D22" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="69">
+      <c r="E22" s="66">
         <f>SUM(E20:E21)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="69">
+      <c r="F22" s="66">
         <f>SUM(F20:F21)</f>
         <v>370</v>
       </c>
-      <c r="G22" s="69">
+      <c r="G22" s="66">
         <f>SUM(G20:G21)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="69">
+      <c r="H22" s="66">
         <f>SUM(H20:H21)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="52">
+      <c r="I22" s="49">
         <f>SUM(I20:I21)</f>
         <v>370</v>
       </c>
-      <c r="J22" s="115"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="118">
+      <c r="J22" s="111"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="114">
         <v>0</v>
       </c>
-      <c r="P22" s="116">
+      <c r="P22" s="112">
         <v>0</v>
       </c>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="17"/>
-    </row>
-    <row r="23" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="70" t="s">
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="15"/>
+    </row>
+    <row r="23" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B23" s="14"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="K23" s="72" t="s">
+      <c r="K23" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="L23" s="72" t="s">
+      <c r="L23" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="M23" s="72" t="s">
+      <c r="M23" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="N23" s="74" t="s">
+      <c r="N23" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="O23" s="75" t="s">
+      <c r="O23" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="P23" s="72" t="s">
+      <c r="P23" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="Q23" s="72" t="s">
+      <c r="Q23" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="R23" s="76" t="s">
+      <c r="R23" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="S23" s="17"/>
-    </row>
-    <row r="24" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="70" t="s">
+      <c r="S23" s="15"/>
+    </row>
+    <row r="24" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B24" s="14"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="K24" s="72" t="s">
+      <c r="K24" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="L24" s="72" t="s">
+      <c r="L24" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="M24" s="72" t="s">
+      <c r="M24" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="N24" s="74" t="s">
+      <c r="N24" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="O24" s="75" t="s">
+      <c r="O24" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="P24" s="72" t="s">
+      <c r="P24" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="Q24" s="72" t="s">
+      <c r="Q24" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="R24" s="76" t="s">
+      <c r="R24" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="S24" s="17"/>
-    </row>
-    <row r="25" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="70" t="s">
+      <c r="S24" s="15"/>
+    </row>
+    <row r="25" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B25" s="14"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="K25" s="72" t="s">
+      <c r="K25" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="L25" s="72" t="s">
+      <c r="L25" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="M25" s="72" t="s">
+      <c r="M25" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="N25" s="74" t="s">
+      <c r="N25" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="O25" s="75" t="s">
+      <c r="O25" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="P25" s="72" t="s">
+      <c r="P25" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="Q25" s="72" t="s">
+      <c r="Q25" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="R25" s="76" t="s">
+      <c r="R25" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="S25" s="17"/>
-    </row>
-    <row r="26" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="71" t="s">
+      <c r="S25" s="15"/>
+    </row>
+    <row r="26" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B26" s="14"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="K26" s="73" t="s">
+      <c r="K26" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="L26" s="73" t="s">
+      <c r="L26" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="M26" s="73" t="s">
+      <c r="M26" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="N26" s="74" t="s">
+      <c r="N26" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="O26" s="75" t="s">
+      <c r="O26" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="P26" s="72" t="s">
+      <c r="P26" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="Q26" s="72" t="s">
+      <c r="Q26" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="R26" s="76" t="s">
+      <c r="R26" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="S26" s="17"/>
-    </row>
-    <row r="27" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="195" t="s">
+      <c r="S26" s="15"/>
+    </row>
+    <row r="27" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1" thickTop="1">
+      <c r="B27" s="14"/>
+      <c r="D27" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="195"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58" t="s">
+      <c r="E27" s="139"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="K27" s="59">
+      <c r="K27" s="56">
         <f t="shared" ref="K27:R27" si="0">SUM(K20:K26)</f>
         <v>0</v>
       </c>
-      <c r="L27" s="59">
+      <c r="L27" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="59">
+      <c r="M27" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N27" s="60">
+      <c r="N27" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O27" s="61">
+      <c r="O27" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P27" s="62">
+      <c r="P27" s="59">
         <v>0</v>
       </c>
-      <c r="Q27" s="62">
+      <c r="Q27" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R27" s="62">
+      <c r="R27" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S27" s="17"/>
-    </row>
-    <row r="28" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="195" t="s">
+      <c r="S27" s="15"/>
+    </row>
+    <row r="28" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B28" s="14"/>
+      <c r="D28" s="139" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="195"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="44" t="s">
+      <c r="E28" s="139"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="42" t="s">
         <v>48</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="47">
+      <c r="I28" s="45">
         <v>370</v>
       </c>
-      <c r="K28" s="40" t="s">
+      <c r="K28" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41">
+      <c r="L28" s="39"/>
+      <c r="M28" s="39">
         <f>SUM(K27:N27)</f>
         <v>0</v>
       </c>
-      <c r="N28" s="41"/>
-      <c r="O28" s="43" t="s">
+      <c r="N28" s="39"/>
+      <c r="O28" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41">
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39">
         <f>SUM(O27:R27)</f>
         <v>0</v>
       </c>
-      <c r="R28" s="42"/>
-      <c r="S28" s="17"/>
-    </row>
-    <row r="29" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="20"/>
-    </row>
-    <row r="30" spans="2:19" s="14" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="22"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="13"/>
-    </row>
-    <row r="32" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="21" t="s">
+      <c r="R28" s="40"/>
+      <c r="S28" s="15"/>
+    </row>
+    <row r="29" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="18"/>
+    </row>
+    <row r="30" spans="2:19" s="13" customFormat="1" ht="4.5" customHeight="1" thickBot="1"/>
+    <row r="31" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B31" s="20"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="12"/>
+    </row>
+    <row r="32" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B32" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23" t="s">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="17"/>
-    </row>
-    <row r="33" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="205" t="s">
+      <c r="S32" s="15"/>
+    </row>
+    <row r="33" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B33" s="14"/>
+      <c r="F33" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="G33" s="205"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="17"/>
-    </row>
-    <row r="34" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16" t="s">
+      <c r="G33" s="134"/>
+      <c r="S33" s="15"/>
+    </row>
+    <row r="34" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B34" s="14"/>
+      <c r="D34" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="206"/>
-      <c r="G34" s="206"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="17"/>
-    </row>
-    <row r="35" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="17"/>
-    </row>
-    <row r="36" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="17"/>
-    </row>
-    <row r="37" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16" t="s">
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="S34" s="15"/>
+    </row>
+    <row r="35" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B35" s="14"/>
+      <c r="S35" s="15"/>
+    </row>
+    <row r="36" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B36" s="14"/>
+      <c r="Q36" s="46"/>
+      <c r="S36" s="15"/>
+    </row>
+    <row r="37" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B37" s="14"/>
+      <c r="D37" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="199"/>
-      <c r="G37" s="199"/>
-      <c r="H37" s="199"/>
-      <c r="I37" s="199"/>
-      <c r="J37" s="199"/>
-      <c r="K37" s="199"/>
-      <c r="L37" s="199"/>
-      <c r="M37" s="199"/>
-      <c r="N37" s="199"/>
-      <c r="O37" s="199"/>
-      <c r="P37" s="199"/>
-      <c r="Q37" s="199"/>
-      <c r="R37" s="199"/>
-      <c r="S37" s="17"/>
-    </row>
-    <row r="38" spans="2:19" s="14" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="20"/>
-    </row>
-    <row r="39" spans="2:19" s="14" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-    </row>
-    <row r="40" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="22"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="13"/>
-    </row>
-    <row r="41" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="21" t="s">
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="128"/>
+      <c r="L37" s="128"/>
+      <c r="M37" s="128"/>
+      <c r="N37" s="128"/>
+      <c r="O37" s="128"/>
+      <c r="P37" s="128"/>
+      <c r="Q37" s="128"/>
+      <c r="R37" s="128"/>
+      <c r="S37" s="15"/>
+    </row>
+    <row r="38" spans="2:19" s="13" customFormat="1" ht="6" customHeight="1" thickBot="1">
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="18"/>
+    </row>
+    <row r="39" spans="2:19" s="13" customFormat="1" ht="4.5" customHeight="1" thickBot="1"/>
+    <row r="40" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B40" s="20"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="12"/>
+    </row>
+    <row r="41" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B41" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="207" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="207"/>
-      <c r="F41" s="207"/>
-      <c r="G41" s="207"/>
-      <c r="H41" s="207"/>
-      <c r="I41" s="207"/>
-      <c r="J41" s="207"/>
-      <c r="K41" s="207"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="17"/>
-    </row>
-    <row r="42" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="17"/>
-    </row>
-    <row r="43" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="90">
+      <c r="E41" s="122"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="122"/>
+      <c r="J41" s="122"/>
+      <c r="K41" s="122"/>
+      <c r="S41" s="15"/>
+    </row>
+    <row r="42" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B42" s="14"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="S42" s="15"/>
+    </row>
+    <row r="43" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B43" s="14"/>
+      <c r="D43" s="87">
         <v>0</v>
       </c>
-      <c r="E43" s="171" t="s">
+      <c r="E43" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="208"/>
-      <c r="G43" s="91">
+      <c r="F43" s="124"/>
+      <c r="G43" s="88">
         <v>370</v>
       </c>
-      <c r="H43" s="171" t="s">
+      <c r="H43" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="I43" s="208"/>
-      <c r="J43" s="91">
+      <c r="I43" s="124"/>
+      <c r="J43" s="88">
         <v>0</v>
       </c>
-      <c r="K43" s="171" t="s">
+      <c r="K43" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="L43" s="149"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="139" t="s">
+      <c r="L43" s="119"/>
+      <c r="N43" s="197" t="s">
         <v>98</v>
       </c>
-      <c r="O43" s="139"/>
-      <c r="P43" s="139"/>
-      <c r="Q43" s="140"/>
-      <c r="R43" s="97" t="s">
+      <c r="O43" s="197"/>
+      <c r="P43" s="197"/>
+      <c r="Q43" s="198"/>
+      <c r="R43" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="S43" s="17"/>
-    </row>
-    <row r="44" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="196" t="s">
+      <c r="S43" s="15"/>
+    </row>
+    <row r="44" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B44" s="14"/>
+      <c r="D44" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="196"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="120" t="s">
+      <c r="E44" s="140"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="H44" s="119"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="196" t="s">
+      <c r="H44" s="115"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="K44" s="196"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="17"/>
-    </row>
-    <row r="45" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="92">
+      <c r="K44" s="140"/>
+      <c r="L44" s="86"/>
+      <c r="S44" s="15"/>
+    </row>
+    <row r="45" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B45" s="14"/>
+      <c r="D45" s="89">
         <v>0</v>
       </c>
-      <c r="E45" s="149" t="s">
+      <c r="E45" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="149"/>
-      <c r="G45" s="93">
+      <c r="F45" s="119"/>
+      <c r="G45" s="90">
         <v>370</v>
       </c>
-      <c r="H45" s="149" t="s">
+      <c r="H45" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="I45" s="149"/>
-      <c r="J45" s="108">
+      <c r="I45" s="119"/>
+      <c r="J45" s="104">
         <v>0</v>
       </c>
-      <c r="K45" s="171" t="s">
+      <c r="K45" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="L45" s="149"/>
-      <c r="M45" s="149"/>
-      <c r="N45" s="141" t="s">
+      <c r="L45" s="119"/>
+      <c r="M45" s="119"/>
+      <c r="N45" s="159" t="s">
         <v>77</v>
       </c>
-      <c r="O45" s="141"/>
-      <c r="P45" s="141"/>
-      <c r="Q45" s="142"/>
-      <c r="R45" s="105" t="s">
+      <c r="O45" s="159"/>
+      <c r="P45" s="159"/>
+      <c r="Q45" s="199"/>
+      <c r="R45" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="S45" s="17"/>
-    </row>
-    <row r="46" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="92">
+      <c r="S45" s="15"/>
+    </row>
+    <row r="46" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B46" s="14"/>
+      <c r="D46" s="89">
         <v>0</v>
       </c>
-      <c r="E46" s="149" t="s">
+      <c r="E46" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="149"/>
-      <c r="G46" s="93">
+      <c r="F46" s="119"/>
+      <c r="G46" s="90">
         <v>0</v>
       </c>
-      <c r="H46" s="149" t="s">
+      <c r="H46" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="I46" s="149"/>
-      <c r="J46" s="93">
+      <c r="I46" s="119"/>
+      <c r="J46" s="90">
         <v>0</v>
       </c>
-      <c r="K46" s="149" t="s">
+      <c r="K46" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="L46" s="149"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="17"/>
-    </row>
-    <row r="47" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="92">
+      <c r="L46" s="119"/>
+      <c r="S46" s="15"/>
+    </row>
+    <row r="47" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B47" s="14"/>
+      <c r="D47" s="89">
         <v>0</v>
       </c>
-      <c r="E47" s="149" t="s">
+      <c r="E47" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="149"/>
-      <c r="G47" s="93">
+      <c r="F47" s="119"/>
+      <c r="G47" s="90">
         <v>0</v>
       </c>
-      <c r="H47" s="149" t="s">
+      <c r="H47" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="I47" s="149"/>
-      <c r="J47" s="93">
+      <c r="I47" s="119"/>
+      <c r="J47" s="90">
         <v>0</v>
       </c>
-      <c r="K47" s="149" t="s">
+      <c r="K47" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="L47" s="149"/>
-      <c r="M47" s="16" t="s">
+      <c r="L47" s="119"/>
+      <c r="M47" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="N47" s="141" t="s">
+      <c r="N47" s="159" t="s">
         <v>89</v>
       </c>
-      <c r="O47" s="141"/>
-      <c r="P47" s="141"/>
-      <c r="Q47" s="142"/>
-      <c r="R47" s="105" t="s">
+      <c r="O47" s="159"/>
+      <c r="P47" s="159"/>
+      <c r="Q47" s="199"/>
+      <c r="R47" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="S47" s="17"/>
-    </row>
-    <row r="48" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="92">
+      <c r="S47" s="15"/>
+    </row>
+    <row r="48" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B48" s="14"/>
+      <c r="D48" s="89">
         <v>0</v>
       </c>
-      <c r="E48" s="149" t="s">
+      <c r="E48" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="F48" s="149"/>
-      <c r="G48" s="93">
+      <c r="F48" s="119"/>
+      <c r="G48" s="90">
         <v>0</v>
       </c>
-      <c r="H48" s="149" t="s">
+      <c r="H48" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="I48" s="149"/>
-      <c r="J48" s="93">
+      <c r="I48" s="119"/>
+      <c r="J48" s="90">
         <v>0</v>
       </c>
-      <c r="K48" s="149" t="s">
+      <c r="K48" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="L48" s="149"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="17"/>
-    </row>
-    <row r="49" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="15"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="92">
+      <c r="L48" s="119"/>
+      <c r="S48" s="15"/>
+    </row>
+    <row r="49" spans="1:19" s="13" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B49" s="14"/>
+      <c r="D49" s="89">
         <v>0</v>
       </c>
-      <c r="E49" s="149" t="s">
+      <c r="E49" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="149"/>
-      <c r="G49" s="93">
+      <c r="F49" s="119"/>
+      <c r="G49" s="90">
         <v>0</v>
       </c>
-      <c r="H49" s="149" t="s">
+      <c r="H49" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="I49" s="149"/>
-      <c r="J49" s="93">
+      <c r="I49" s="119"/>
+      <c r="J49" s="90">
         <v>0</v>
       </c>
-      <c r="K49" s="149" t="s">
+      <c r="K49" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="L49" s="149"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="139" t="s">
+      <c r="L49" s="119"/>
+      <c r="N49" s="197" t="s">
         <v>78</v>
       </c>
-      <c r="O49" s="139"/>
-      <c r="P49" s="139"/>
-      <c r="Q49" s="139"/>
-      <c r="R49" s="105">
+      <c r="O49" s="197"/>
+      <c r="P49" s="197"/>
+      <c r="Q49" s="197"/>
+      <c r="R49" s="101">
         <v>370</v>
       </c>
-      <c r="S49" s="17"/>
-    </row>
-    <row r="50" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="93">
+      <c r="S49" s="15"/>
+    </row>
+    <row r="50" spans="1:19" s="13" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B50" s="14"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="90">
         <v>0</v>
       </c>
-      <c r="H50" s="149" t="s">
+      <c r="H50" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="I50" s="149"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="109"/>
-      <c r="L50" s="109"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="17"/>
-    </row>
-    <row r="51" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="152"/>
-      <c r="F51" s="152"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="17"/>
-    </row>
-    <row r="52" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="15"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="149" t="s">
+      <c r="I50" s="119"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="105"/>
+      <c r="L50" s="105"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
+      <c r="S50" s="15"/>
+    </row>
+    <row r="51" spans="1:19" s="13" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B51" s="14"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="186"/>
+      <c r="F51" s="186"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="86"/>
+      <c r="K51" s="86"/>
+      <c r="L51" s="86"/>
+      <c r="S51" s="15"/>
+    </row>
+    <row r="52" spans="1:19" s="13" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B52" s="14"/>
+      <c r="D52" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="149"/>
-      <c r="F52" s="150">
+      <c r="E52" s="119"/>
+      <c r="F52" s="184">
         <f>SUM(D43,G43,J43)</f>
         <v>370</v>
       </c>
-      <c r="G52" s="151"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="89"/>
-      <c r="L52" s="89"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="17"/>
-    </row>
-    <row r="53" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="20"/>
-    </row>
-    <row r="54" spans="1:19" s="14" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-    </row>
-    <row r="55" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="10" t="s">
+      <c r="G52" s="185"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="86"/>
+      <c r="K52" s="86"/>
+      <c r="L52" s="86"/>
+      <c r="S52" s="15"/>
+    </row>
+    <row r="53" spans="1:19" s="13" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="18"/>
+    </row>
+    <row r="54" spans="1:19" s="13" customFormat="1" ht="4.5" customHeight="1" thickBot="1"/>
+    <row r="55" spans="1:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B55" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11" t="s">
+      <c r="C55" s="10"/>
+      <c r="D55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-      <c r="S55" s="13"/>
-    </row>
-    <row r="56" spans="1:19" s="14" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="15"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="211" t="s">
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="12"/>
+    </row>
+    <row r="56" spans="1:19" s="13" customFormat="1" ht="6.75" customHeight="1">
+      <c r="B56" s="14"/>
+      <c r="H56" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="I56" s="211"/>
-      <c r="J56" s="211"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="17"/>
-    </row>
-    <row r="57" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="15"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="14" t="s">
+      <c r="I56" s="159"/>
+      <c r="J56" s="159"/>
+      <c r="S56" s="15"/>
+    </row>
+    <row r="57" spans="1:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B57" s="14"/>
+      <c r="G57" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H57" s="125"/>
-      <c r="I57" s="125"/>
-      <c r="J57" s="125"/>
-      <c r="K57" s="209" t="s">
+      <c r="H57" s="160"/>
+      <c r="I57" s="160"/>
+      <c r="J57" s="160"/>
+      <c r="K57" s="157" t="s">
         <v>90</v>
       </c>
-      <c r="L57" s="210"/>
-      <c r="M57" s="98" t="s">
+      <c r="L57" s="158"/>
+      <c r="M57" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="N57" s="50"/>
-      <c r="O57" s="136" t="s">
+      <c r="N57" s="47"/>
+      <c r="O57" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="P57" s="136"/>
-      <c r="Q57" s="137"/>
-      <c r="R57" s="97" t="s">
+      <c r="P57" s="193"/>
+      <c r="Q57" s="194"/>
+      <c r="R57" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="S57" s="17"/>
-    </row>
-    <row r="58" spans="1:19" s="14" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="124" t="s">
+      <c r="S57" s="15"/>
+    </row>
+    <row r="58" spans="1:19" s="13" customFormat="1" ht="4.5" customHeight="1">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="H58" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="I58" s="124"/>
-      <c r="J58" s="124"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="94"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="17"/>
-    </row>
-    <row r="59" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="14" t="s">
+      <c r="I58" s="136"/>
+      <c r="J58" s="136"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="91"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="S58" s="15"/>
+    </row>
+    <row r="59" spans="1:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="G59" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H59" s="125"/>
-      <c r="I59" s="125"/>
-      <c r="J59" s="125"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="50"/>
-      <c r="O59" s="136" t="s">
+      <c r="H59" s="160"/>
+      <c r="I59" s="160"/>
+      <c r="J59" s="160"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="P59" s="136"/>
-      <c r="Q59" s="137"/>
-      <c r="R59" s="97">
+      <c r="P59" s="193"/>
+      <c r="Q59" s="194"/>
+      <c r="R59" s="94">
         <v>2</v>
       </c>
-      <c r="S59" s="17"/>
-    </row>
-    <row r="60" spans="1:19" s="14" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="126" t="s">
+      <c r="S59" s="15"/>
+    </row>
+    <row r="60" spans="1:19" s="13" customFormat="1" ht="4.5" customHeight="1">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="H60" s="200" t="s">
         <v>113</v>
       </c>
-      <c r="I60" s="126"/>
-      <c r="J60" s="126"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="94"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="17"/>
-    </row>
-    <row r="61" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="14" t="s">
+      <c r="I60" s="200"/>
+      <c r="J60" s="200"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="91"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="15"/>
+    </row>
+    <row r="61" spans="1:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="G61" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H61" s="127"/>
-      <c r="I61" s="127"/>
-      <c r="J61" s="127"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="50"/>
-      <c r="M61" s="50"/>
-      <c r="O61" s="132" t="s">
+      <c r="H61" s="201"/>
+      <c r="I61" s="201"/>
+      <c r="J61" s="201"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
+      <c r="O61" s="195" t="s">
         <v>81</v>
       </c>
-      <c r="P61" s="132"/>
-      <c r="Q61" s="138"/>
-      <c r="R61" s="97" t="s">
-        <v>126</v>
-      </c>
-      <c r="S61" s="17"/>
-    </row>
-    <row r="62" spans="1:19" s="14" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="20"/>
-    </row>
-    <row r="63" spans="1:19" s="14" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="10" t="s">
+      <c r="P61" s="195"/>
+      <c r="Q61" s="196"/>
+      <c r="R61" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="S61" s="15"/>
+    </row>
+    <row r="62" spans="1:19" s="13" customFormat="1" ht="5.25" customHeight="1" thickBot="1">
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="18"/>
+    </row>
+    <row r="63" spans="1:19" s="13" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
+    <row r="64" spans="1:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B64" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11" t="s">
+      <c r="C64" s="10"/>
+      <c r="D64" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
-      <c r="S64" s="13"/>
-    </row>
-    <row r="65" spans="2:20" s="14" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="15"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="17"/>
-    </row>
-    <row r="66" spans="2:20" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="15"/>
-      <c r="C66" s="16" t="s">
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="12"/>
+    </row>
+    <row r="65" spans="2:19" s="13" customFormat="1" ht="6" customHeight="1">
+      <c r="B65" s="14"/>
+      <c r="S65" s="15"/>
+    </row>
+    <row r="66" spans="2:19" s="13" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B66" s="14"/>
+      <c r="C66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E66" s="16"/>
-      <c r="F66" s="147" t="s">
+      <c r="F66" s="191" t="s">
         <v>101</v>
       </c>
-      <c r="G66" s="147"/>
-      <c r="H66" s="141" t="s">
+      <c r="G66" s="191"/>
+      <c r="H66" s="159" t="s">
         <v>59</v>
       </c>
-      <c r="I66" s="141"/>
-      <c r="J66" s="141"/>
-      <c r="K66" s="141"/>
-      <c r="L66" s="141"/>
-      <c r="M66" s="129" t="s">
+      <c r="I66" s="159"/>
+      <c r="J66" s="159"/>
+      <c r="K66" s="159"/>
+      <c r="L66" s="159"/>
+      <c r="M66" s="190" t="s">
         <v>101</v>
       </c>
-      <c r="N66" s="129"/>
-      <c r="O66" s="129"/>
-      <c r="P66" s="129"/>
-      <c r="Q66" s="129"/>
-      <c r="R66" s="129"/>
-      <c r="S66" s="17"/>
-      <c r="T66" s="16"/>
-    </row>
-    <row r="67" spans="2:20" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="15"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="130">
+      <c r="N66" s="190"/>
+      <c r="O66" s="190"/>
+      <c r="P66" s="190"/>
+      <c r="Q66" s="190"/>
+      <c r="R66" s="190"/>
+      <c r="S66" s="15"/>
+    </row>
+    <row r="67" spans="2:19" s="13" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B67" s="14"/>
+      <c r="F67" s="203">
         <v>0</v>
       </c>
-      <c r="G67" s="130"/>
-      <c r="H67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="51" t="s">
+      <c r="G67" s="203"/>
+      <c r="L67" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16" t="s">
+      <c r="N67" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="17"/>
-      <c r="T67" s="16"/>
-    </row>
-    <row r="68" spans="2:20" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="15"/>
-      <c r="C68" s="35" t="s">
+      <c r="S67" s="15"/>
+    </row>
+    <row r="68" spans="2:19" s="13" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B68" s="14"/>
+      <c r="C68" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E68" s="50"/>
-      <c r="F68" s="131"/>
-      <c r="G68" s="131"/>
-      <c r="H68" s="134" t="s">
+      <c r="E68" s="47"/>
+      <c r="F68" s="204"/>
+      <c r="G68" s="204"/>
+      <c r="H68" s="205" t="s">
         <v>82</v>
       </c>
-      <c r="I68" s="135"/>
-      <c r="J68" s="106">
+      <c r="I68" s="206"/>
+      <c r="J68" s="102">
         <v>0</v>
       </c>
-      <c r="K68" s="50" t="s">
+      <c r="K68" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="L68" s="107">
+      <c r="L68" s="103">
         <v>0</v>
       </c>
-      <c r="M68" s="51" t="s">
+      <c r="M68" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="N68" s="106">
+      <c r="N68" s="102">
         <v>0</v>
       </c>
-      <c r="O68" s="99" t="s">
+      <c r="O68" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="P68" s="106">
+      <c r="P68" s="102">
         <v>0</v>
       </c>
-      <c r="Q68" s="99" t="s">
+      <c r="Q68" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="R68" s="106">
+      <c r="R68" s="102">
         <v>0</v>
       </c>
-      <c r="S68" s="17"/>
-      <c r="T68" s="16"/>
-    </row>
-    <row r="69" spans="2:20" s="14" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="128"/>
-      <c r="G69" s="128"/>
-      <c r="H69" s="16"/>
-      <c r="J69" s="132"/>
-      <c r="K69" s="132"/>
-      <c r="L69" s="132"/>
-      <c r="M69" s="132"/>
-      <c r="N69" s="132"/>
-      <c r="O69" s="132"/>
-      <c r="P69" s="132"/>
-      <c r="Q69" s="132"/>
-      <c r="R69" s="132"/>
-      <c r="S69" s="17"/>
-      <c r="T69" s="16"/>
-    </row>
-    <row r="70" spans="2:20" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="15"/>
-      <c r="C70" s="35" t="s">
+      <c r="S68" s="15"/>
+    </row>
+    <row r="69" spans="2:19" s="13" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B69" s="14"/>
+      <c r="F69" s="202"/>
+      <c r="G69" s="202"/>
+      <c r="J69" s="195"/>
+      <c r="K69" s="195"/>
+      <c r="L69" s="195"/>
+      <c r="M69" s="195"/>
+      <c r="N69" s="195"/>
+      <c r="O69" s="195"/>
+      <c r="P69" s="195"/>
+      <c r="Q69" s="195"/>
+      <c r="R69" s="195"/>
+      <c r="S69" s="15"/>
+    </row>
+    <row r="70" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B70" s="14"/>
+      <c r="C70" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="35"/>
-      <c r="F70" s="129"/>
-      <c r="G70" s="129"/>
-      <c r="H70" s="16" t="s">
+      <c r="D70" s="33"/>
+      <c r="F70" s="190"/>
+      <c r="G70" s="190"/>
+      <c r="H70" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="J70" s="133"/>
-      <c r="K70" s="133"/>
-      <c r="L70" s="133"/>
-      <c r="M70" s="133"/>
-      <c r="N70" s="133"/>
-      <c r="O70" s="133"/>
-      <c r="P70" s="133"/>
-      <c r="Q70" s="133"/>
-      <c r="R70" s="133"/>
-      <c r="S70" s="17"/>
-      <c r="T70" s="16"/>
-    </row>
-    <row r="71" spans="2:20" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19"/>
-      <c r="S71" s="20"/>
-      <c r="T71" s="16"/>
-    </row>
-    <row r="72" spans="2:20" s="14" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-    </row>
-    <row r="73" spans="2:20" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="25" t="s">
+      <c r="J70" s="156"/>
+      <c r="K70" s="156"/>
+      <c r="L70" s="156"/>
+      <c r="M70" s="156"/>
+      <c r="N70" s="156"/>
+      <c r="O70" s="156"/>
+      <c r="P70" s="156"/>
+      <c r="Q70" s="156"/>
+      <c r="R70" s="156"/>
+      <c r="S70" s="15"/>
+    </row>
+    <row r="71" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B71" s="16"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="18"/>
+    </row>
+    <row r="72" spans="2:19" s="13" customFormat="1" ht="7.5" customHeight="1" thickBot="1"/>
+    <row r="73" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B73" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26" t="s">
+      <c r="C73" s="24"/>
+      <c r="D73" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
-      <c r="S73" s="13"/>
-      <c r="T73" s="16"/>
-    </row>
-    <row r="74" spans="2:20" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="15"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="173"/>
-      <c r="E74" s="173"/>
-      <c r="F74" s="173"/>
-      <c r="G74" s="173"/>
-      <c r="H74" s="173"/>
-      <c r="I74" s="173"/>
-      <c r="J74" s="173"/>
-      <c r="K74" s="173"/>
-      <c r="L74" s="173"/>
-      <c r="M74" s="173"/>
-      <c r="N74" s="173"/>
-      <c r="O74" s="173"/>
-      <c r="P74" s="173"/>
-      <c r="Q74" s="173"/>
-      <c r="R74" s="173"/>
-      <c r="S74" s="17"/>
-      <c r="T74" s="16"/>
-    </row>
-    <row r="75" spans="2:20" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="15"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="144"/>
-      <c r="E75" s="144"/>
-      <c r="F75" s="144"/>
-      <c r="G75" s="144"/>
-      <c r="H75" s="144"/>
-      <c r="I75" s="144"/>
-      <c r="J75" s="144"/>
-      <c r="K75" s="144"/>
-      <c r="L75" s="144"/>
-      <c r="M75" s="144"/>
-      <c r="N75" s="144"/>
-      <c r="O75" s="144"/>
-      <c r="P75" s="144"/>
-      <c r="Q75" s="144"/>
-      <c r="R75" s="144"/>
-      <c r="S75" s="17"/>
-      <c r="T75" s="16"/>
-    </row>
-    <row r="76" spans="2:20" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="144"/>
-      <c r="E76" s="144"/>
-      <c r="F76" s="144"/>
-      <c r="G76" s="144"/>
-      <c r="H76" s="144"/>
-      <c r="I76" s="144"/>
-      <c r="J76" s="144"/>
-      <c r="K76" s="144"/>
-      <c r="L76" s="144"/>
-      <c r="M76" s="144"/>
-      <c r="N76" s="144"/>
-      <c r="O76" s="144"/>
-      <c r="P76" s="144"/>
-      <c r="Q76" s="144"/>
-      <c r="R76" s="144"/>
-      <c r="S76" s="17"/>
-      <c r="T76" s="16"/>
-    </row>
-    <row r="77" spans="2:20" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="15"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="144"/>
-      <c r="E77" s="144"/>
-      <c r="F77" s="144"/>
-      <c r="G77" s="144"/>
-      <c r="H77" s="144"/>
-      <c r="I77" s="144"/>
-      <c r="J77" s="144"/>
-      <c r="K77" s="144"/>
-      <c r="L77" s="144"/>
-      <c r="M77" s="144"/>
-      <c r="N77" s="144"/>
-      <c r="O77" s="144"/>
-      <c r="P77" s="144"/>
-      <c r="Q77" s="144"/>
-      <c r="R77" s="144"/>
-      <c r="S77" s="17"/>
-      <c r="T77" s="16"/>
-    </row>
-    <row r="78" spans="2:20" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="19"/>
-      <c r="S78" s="20"/>
-      <c r="T78" s="16"/>
-    </row>
-    <row r="79" spans="2:20" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="100" t="s">
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="12"/>
+    </row>
+    <row r="74" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B74" s="14"/>
+      <c r="D74" s="155"/>
+      <c r="E74" s="155"/>
+      <c r="F74" s="155"/>
+      <c r="G74" s="155"/>
+      <c r="H74" s="155"/>
+      <c r="I74" s="155"/>
+      <c r="J74" s="155"/>
+      <c r="K74" s="155"/>
+      <c r="L74" s="155"/>
+      <c r="M74" s="155"/>
+      <c r="N74" s="155"/>
+      <c r="O74" s="155"/>
+      <c r="P74" s="155"/>
+      <c r="Q74" s="155"/>
+      <c r="R74" s="155"/>
+      <c r="S74" s="15"/>
+    </row>
+    <row r="75" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B75" s="14"/>
+      <c r="D75" s="154"/>
+      <c r="E75" s="154"/>
+      <c r="F75" s="154"/>
+      <c r="G75" s="154"/>
+      <c r="H75" s="154"/>
+      <c r="I75" s="154"/>
+      <c r="J75" s="154"/>
+      <c r="K75" s="154"/>
+      <c r="L75" s="154"/>
+      <c r="M75" s="154"/>
+      <c r="N75" s="154"/>
+      <c r="O75" s="154"/>
+      <c r="P75" s="154"/>
+      <c r="Q75" s="154"/>
+      <c r="R75" s="154"/>
+      <c r="S75" s="15"/>
+    </row>
+    <row r="76" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B76" s="14"/>
+      <c r="D76" s="154"/>
+      <c r="E76" s="154"/>
+      <c r="F76" s="154"/>
+      <c r="G76" s="154"/>
+      <c r="H76" s="154"/>
+      <c r="I76" s="154"/>
+      <c r="J76" s="154"/>
+      <c r="K76" s="154"/>
+      <c r="L76" s="154"/>
+      <c r="M76" s="154"/>
+      <c r="N76" s="154"/>
+      <c r="O76" s="154"/>
+      <c r="P76" s="154"/>
+      <c r="Q76" s="154"/>
+      <c r="R76" s="154"/>
+      <c r="S76" s="15"/>
+    </row>
+    <row r="77" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B77" s="14"/>
+      <c r="D77" s="154"/>
+      <c r="E77" s="154"/>
+      <c r="F77" s="154"/>
+      <c r="G77" s="154"/>
+      <c r="H77" s="154"/>
+      <c r="I77" s="154"/>
+      <c r="J77" s="154"/>
+      <c r="K77" s="154"/>
+      <c r="L77" s="154"/>
+      <c r="M77" s="154"/>
+      <c r="N77" s="154"/>
+      <c r="O77" s="154"/>
+      <c r="P77" s="154"/>
+      <c r="Q77" s="154"/>
+      <c r="R77" s="154"/>
+      <c r="S77" s="15"/>
+    </row>
+    <row r="78" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B78" s="16"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="17"/>
+      <c r="S78" s="18"/>
+    </row>
+    <row r="79" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B79" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="100"/>
-      <c r="D79" s="101"/>
-      <c r="E79" s="145"/>
-      <c r="F79" s="145"/>
-      <c r="G79" s="145"/>
-      <c r="H79" s="145"/>
-      <c r="I79" s="145"/>
-      <c r="J79" s="145"/>
-      <c r="K79" s="145"/>
-      <c r="L79" s="145"/>
-      <c r="M79" s="145"/>
-      <c r="N79" s="145"/>
-      <c r="O79" s="145"/>
-      <c r="P79" s="145"/>
-      <c r="Q79" s="145"/>
-      <c r="R79" s="145"/>
-      <c r="S79" s="145"/>
-      <c r="T79" s="16"/>
-    </row>
-    <row r="80" spans="2:20" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="146"/>
-      <c r="C80" s="146"/>
-      <c r="D80" s="146"/>
-      <c r="E80" s="146"/>
-      <c r="F80" s="146"/>
-      <c r="G80" s="146"/>
-      <c r="H80" s="146"/>
-      <c r="I80" s="146"/>
-      <c r="J80" s="146"/>
-      <c r="K80" s="146"/>
-      <c r="L80" s="146"/>
-      <c r="M80" s="146"/>
-      <c r="N80" s="146"/>
-      <c r="O80" s="146"/>
-      <c r="P80" s="146"/>
-      <c r="Q80" s="146"/>
-      <c r="R80" s="146"/>
-      <c r="S80" s="146"/>
-    </row>
-    <row r="81" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="148"/>
-      <c r="C81" s="148"/>
-      <c r="D81" s="148"/>
-      <c r="E81" s="148"/>
-      <c r="F81" s="148"/>
-      <c r="G81" s="148"/>
-      <c r="H81" s="148"/>
-      <c r="I81" s="148"/>
-      <c r="J81" s="148"/>
-      <c r="K81" s="148"/>
-      <c r="L81" s="148"/>
-      <c r="M81" s="148"/>
-      <c r="N81" s="148"/>
-      <c r="O81" s="148"/>
-      <c r="P81" s="148"/>
-      <c r="Q81" s="148"/>
-      <c r="R81" s="148"/>
-      <c r="S81" s="148"/>
-    </row>
-    <row r="82" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="143" t="s">
+      <c r="C79" s="97"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="188"/>
+      <c r="F79" s="188"/>
+      <c r="G79" s="188"/>
+      <c r="H79" s="188"/>
+      <c r="I79" s="188"/>
+      <c r="J79" s="188"/>
+      <c r="K79" s="188"/>
+      <c r="L79" s="188"/>
+      <c r="M79" s="188"/>
+      <c r="N79" s="188"/>
+      <c r="O79" s="188"/>
+      <c r="P79" s="188"/>
+      <c r="Q79" s="188"/>
+      <c r="R79" s="188"/>
+      <c r="S79" s="188"/>
+    </row>
+    <row r="80" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B80" s="189"/>
+      <c r="C80" s="189"/>
+      <c r="D80" s="189"/>
+      <c r="E80" s="189"/>
+      <c r="F80" s="189"/>
+      <c r="G80" s="189"/>
+      <c r="H80" s="189"/>
+      <c r="I80" s="189"/>
+      <c r="J80" s="189"/>
+      <c r="K80" s="189"/>
+      <c r="L80" s="189"/>
+      <c r="M80" s="189"/>
+      <c r="N80" s="189"/>
+      <c r="O80" s="189"/>
+      <c r="P80" s="189"/>
+      <c r="Q80" s="189"/>
+      <c r="R80" s="189"/>
+      <c r="S80" s="189"/>
+    </row>
+    <row r="81" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B81" s="192"/>
+      <c r="C81" s="192"/>
+      <c r="D81" s="192"/>
+      <c r="E81" s="192"/>
+      <c r="F81" s="192"/>
+      <c r="G81" s="192"/>
+      <c r="H81" s="192"/>
+      <c r="I81" s="192"/>
+      <c r="J81" s="192"/>
+      <c r="K81" s="192"/>
+      <c r="L81" s="192"/>
+      <c r="M81" s="192"/>
+      <c r="N81" s="192"/>
+      <c r="O81" s="192"/>
+      <c r="P81" s="192"/>
+      <c r="Q81" s="192"/>
+      <c r="R81" s="192"/>
+      <c r="S81" s="192"/>
+    </row>
+    <row r="82" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B82" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="143"/>
-      <c r="D82" s="143"/>
-      <c r="E82" s="143"/>
-      <c r="F82" s="143"/>
-      <c r="G82" s="143"/>
-      <c r="H82" s="133"/>
-      <c r="I82" s="133"/>
-      <c r="J82" s="49"/>
-      <c r="K82" s="133"/>
-      <c r="L82" s="133"/>
-      <c r="M82" s="133"/>
-      <c r="N82" s="133"/>
-      <c r="O82" s="133"/>
-      <c r="P82" s="49"/>
-      <c r="Q82" s="133"/>
-      <c r="R82" s="133"/>
-      <c r="S82" s="101"/>
-    </row>
-    <row r="83" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="101"/>
-      <c r="C83" s="101"/>
-      <c r="D83" s="101"/>
-      <c r="E83" s="101"/>
-      <c r="F83" s="101"/>
-      <c r="G83" s="101"/>
-      <c r="H83" s="172" t="s">
+      <c r="C82" s="187"/>
+      <c r="D82" s="187"/>
+      <c r="E82" s="187"/>
+      <c r="F82" s="187"/>
+      <c r="G82" s="187"/>
+      <c r="H82" s="156"/>
+      <c r="I82" s="156"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="156"/>
+      <c r="L82" s="156"/>
+      <c r="M82" s="156"/>
+      <c r="N82" s="156"/>
+      <c r="O82" s="156"/>
+      <c r="P82" s="47"/>
+      <c r="Q82" s="156"/>
+      <c r="R82" s="156"/>
+      <c r="S82" s="47"/>
+    </row>
+    <row r="83" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="I83" s="172"/>
-      <c r="J83" s="101"/>
-      <c r="K83" s="172" t="s">
+      <c r="I83" s="153"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="L83" s="172"/>
-      <c r="M83" s="172"/>
-      <c r="N83" s="172"/>
-      <c r="O83" s="172"/>
-      <c r="P83" s="101"/>
-      <c r="Q83" s="101" t="s">
+      <c r="L83" s="153"/>
+      <c r="M83" s="153"/>
+      <c r="N83" s="153"/>
+      <c r="O83" s="153"/>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="R83" s="101"/>
-      <c r="S83" s="101"/>
-    </row>
-    <row r="84" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H89" s="14" t="s">
+      <c r="R83" s="47"/>
+      <c r="S83" s="47"/>
+    </row>
+    <row r="84" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="85" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="86" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="87" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="88" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="89" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="H89" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H90" s="14" t="s">
+    <row r="90" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="H90" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I90" s="14" t="s">
+      <c r="I90" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I91" s="14" t="s">
+    <row r="91" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="I91" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="2:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="93" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="94" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="95" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="96" spans="2:19" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="97" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="98" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="99" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="100" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="101" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="102" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="103" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="104" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="105" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="106" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="107" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="108" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="109" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="110" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="111" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="112" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="113" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="114" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="115" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="116" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="117" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="118" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="119" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="120" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="121" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="122" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="123" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="124" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="125" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="126" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="127" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="128" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="129" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="130" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="131" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="132" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="133" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="134" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="135" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="136" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="137" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="138" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="139" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="140" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="141" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="142" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="143" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="144" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="145" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="146" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="147" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="148" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="149" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="150" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="151" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="152" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="153" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="154" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="155" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="156" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="157" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="158" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="159" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="160" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="161" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="162" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="163" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="164" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="165" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="166" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="167" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="168" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="169" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="170" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="171" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="172" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="173" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="174" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="175" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="176" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="177" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="178" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="179" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="180" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="181" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="182" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="183" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="184" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="185" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="186" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="187" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="188" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="189" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="190" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="191" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="192" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="193" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="194" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="195" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="196" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="197" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="198" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="199" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="200" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="201" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="202" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="203" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="204" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="205" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="206" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="207" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="208" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="209" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="210" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="211" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="212" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="213" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="214" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="215" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="216" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="217" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="218" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="219" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="220" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="221" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="222" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="223" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="224" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="225" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="226" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="227" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="228" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="229" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="230" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="231" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="232" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="233" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="234" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="235" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="236" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="237" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="238" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="239" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="240" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="241" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="242" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="243" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="244" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="245" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="246" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="247" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="248" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="249" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="250" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="251" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="252" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="253" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="254" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="255" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="256" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="257" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="258" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="259" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="260" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="261" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="262" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="263" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="264" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="265" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="266" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="267" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="268" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="269" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="270" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="271" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="272" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="273" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="274" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="275" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="276" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="277" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="278" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="279" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="280" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="281" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="282" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="283" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="284" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="285" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="286" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="287" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="288" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="289" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="290" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="291" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="292" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="293" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="294" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="295" s="13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="296" s="13" customFormat="1" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="D41:K41"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="F37:R37"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="H58:J59"/>
+    <mergeCell ref="H60:J61"/>
+    <mergeCell ref="F69:G70"/>
+    <mergeCell ref="F67:G68"/>
+    <mergeCell ref="J69:R70"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="O57:Q57"/>
+    <mergeCell ref="O61:Q61"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="D75:R75"/>
+    <mergeCell ref="E79:S79"/>
+    <mergeCell ref="B80:S80"/>
+    <mergeCell ref="M66:R66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="K82:O82"/>
+    <mergeCell ref="Q82:R82"/>
+    <mergeCell ref="B81:S81"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="J4:S4"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N11:R11"/>
     <mergeCell ref="K83:O83"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="K47:L47"/>
@@ -5384,50 +5099,46 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="H48:I48"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="F37:R37"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D44:E44"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E46:F46"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="J4:S4"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O18:O19"/>
     <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="D75:R75"/>
-    <mergeCell ref="E79:S79"/>
-    <mergeCell ref="B80:S80"/>
-    <mergeCell ref="M66:R66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="K82:O82"/>
-    <mergeCell ref="Q82:R82"/>
-    <mergeCell ref="B81:S81"/>
-    <mergeCell ref="O57:Q57"/>
-    <mergeCell ref="O61:Q61"/>
-    <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="H58:J59"/>
-    <mergeCell ref="H60:J61"/>
-    <mergeCell ref="F69:G70"/>
-    <mergeCell ref="F67:G68"/>
-    <mergeCell ref="J69:R70"/>
-    <mergeCell ref="H68:I68"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5446,13 +5157,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:colOff>220980</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5468,13 +5179,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>30480</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5490,15 +5201,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>99060</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5512,13 +5223,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>388620</xdr:colOff>
                     <xdr:row>34</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
+                    <xdr:rowOff>99060</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:colOff>297180</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -5536,13 +5247,13 @@
                     <xdr:col>14</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>34</xdr:row>
-                    <xdr:rowOff>85725</xdr:rowOff>
+                    <xdr:rowOff>83820</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>16</xdr:col>
-                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:colOff>236220</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5556,14 +5267,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="256" width="11.42578125" customWidth="1"/>
+    <col min="1" max="256" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5573,14 +5284,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="256" width="11.42578125" customWidth="1"/>
+    <col min="1" max="256" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
